--- a/Assets/Sprites/source.xlsx
+++ b/Assets/Sprites/source.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -44,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +55,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -83,8 +91,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -404,28 +415,30 @@
   <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="51.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Assets/Sprites/source.xlsx
+++ b/Assets/Sprites/source.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>file name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,13 +38,21 @@
   </si>
   <si>
     <t>https://opengameart.org/content/shield-effect</t>
+  </si>
+  <si>
+    <t>Starter/spr_Cancel.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://game-icons.net/sbed/originals/cancel.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +76,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -86,21 +103,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35F4C77-45A3-4ABA-9154-524A6163622F}">
-  <dimension ref="B1:C2"/>
+  <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="C7" activeCellId="1" sqref="C3 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -442,8 +466,19 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{CBAD17AF-747D-420F-8036-82345DD00B56}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>